--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/64/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/64/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3093093093093093</v>
+        <v>0.1338133813381338</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>612.6126126126127</v>
+        <v>1389.278927892789</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.002502502502502502</v>
+        <v>0.05552555255525553</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7107107107107107</v>
+        <v>0.750975097509751</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>122.1221221221221</v>
+        <v>1496.449644964496</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>393.3933933933934</v>
+        <v>138.2538253825383</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>570.5705705705706</v>
+        <v>878.7092709270927</v>
       </c>
     </row>
   </sheetData>
